--- a/data/BCRA Tasa de interés préstamos interfinancieros hasta 15 días de plazo moneda nacional TRIMESTRAL (1980 a 2021).xlsx
+++ b/data/BCRA Tasa de interés préstamos interfinancieros hasta 15 días de plazo moneda nacional TRIMESTRAL (1980 a 2021).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FA3D25D-AA27-B042-A7B5-52D4493BCC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CBF6895-D127-AF44-BE18-CABE7B49497E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{7946B2AC-F490-904D-9B79-B3AAD7E96CF4}"/>
   </bookViews>
@@ -444,7 +444,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>1980.01</v>
+        <v>1980</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>1980.01</v>
+        <v>1980</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -466,7 +466,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>1980.01</v>
+        <v>1980</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>1980.01</v>
+        <v>1980</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>1981.01</v>
+        <v>1981</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>1981.01</v>
+        <v>1981</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>1981.01</v>
+        <v>1981</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>1981.01</v>
+        <v>1981</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>1982.01</v>
+        <v>1982</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>1982.01</v>
+        <v>1982</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>1982.01</v>
+        <v>1982</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>1982.01</v>
+        <v>1982</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>1983.01</v>
+        <v>1983</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>1983.01</v>
+        <v>1983</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>1983.01</v>
+        <v>1983</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>1983.01</v>
+        <v>1983</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>1984.01</v>
+        <v>1984</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>1984.01</v>
+        <v>1984</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>1984.01</v>
+        <v>1984</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>1984.01</v>
+        <v>1984</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>1985.01</v>
+        <v>1985</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>1985.01</v>
+        <v>1985</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>1985.01</v>
+        <v>1985</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>1985.01</v>
+        <v>1985</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>1986.01</v>
+        <v>1986</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>1986.01</v>
+        <v>1986</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>1986.01</v>
+        <v>1986</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>1986.01</v>
+        <v>1986</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>1987.01</v>
+        <v>1987</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>1987.01</v>
+        <v>1987</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>1987.01</v>
+        <v>1987</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>1987.01</v>
+        <v>1987</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>1988.01</v>
+        <v>1988</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>1988.01</v>
+        <v>1988</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>1988.01</v>
+        <v>1988</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>1988.01</v>
+        <v>1988</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>1989.01</v>
+        <v>1989</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>1989.01</v>
+        <v>1989</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>1989.01</v>
+        <v>1989</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>1989.01</v>
+        <v>1989</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>1990.01</v>
+        <v>1990</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>1990.01</v>
+        <v>1990</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>1990.01</v>
+        <v>1990</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>1990.01</v>
+        <v>1990</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>1991.01</v>
+        <v>1991</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>1991.01</v>
+        <v>1991</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>1991.01</v>
+        <v>1991</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>1991.01</v>
+        <v>1991</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>1992.01</v>
+        <v>1992</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>1992.01</v>
+        <v>1992</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>1992.01</v>
+        <v>1992</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>1992.01</v>
+        <v>1992</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>1993.01</v>
+        <v>1993</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>1993.01</v>
+        <v>1993</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>1993.01</v>
+        <v>1993</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>1993.01</v>
+        <v>1993</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>1994.01</v>
+        <v>1994</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>1994.01</v>
+        <v>1994</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>1994.01</v>
+        <v>1994</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>1994.01</v>
+        <v>1994</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>1995.01</v>
+        <v>1995</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>1995.01</v>
+        <v>1995</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>1995.01</v>
+        <v>1995</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>1995.01</v>
+        <v>1995</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2">
-        <v>1996.01</v>
+        <v>1996</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>1996.01</v>
+        <v>1996</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>1996.01</v>
+        <v>1996</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>1996.01</v>
+        <v>1996</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>1997.01</v>
+        <v>1997</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>1997.01</v>
+        <v>1997</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>1997.01</v>
+        <v>1997</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>1997.01</v>
+        <v>1997</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>1998.01</v>
+        <v>1998</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>1998.01</v>
+        <v>1998</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>1998.01</v>
+        <v>1998</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>1998.01</v>
+        <v>1998</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2">
-        <v>1999.01</v>
+        <v>1999</v>
       </c>
       <c r="B78" t="s">
         <v>2</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>1999.01</v>
+        <v>1999</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>1999.01</v>
+        <v>1999</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
-        <v>1999.01</v>
+        <v>1999</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>2000.01</v>
+        <v>2000</v>
       </c>
       <c r="B82" t="s">
         <v>2</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>2000.01</v>
+        <v>2000</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>2000.01</v>
+        <v>2000</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>2000.01</v>
+        <v>2000</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>2001.01</v>
+        <v>2001</v>
       </c>
       <c r="B86" t="s">
         <v>2</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>2001.01</v>
+        <v>2001</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2">
-        <v>2001.01</v>
+        <v>2001</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2">
-        <v>2001.01</v>
+        <v>2001</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2">
-        <v>2002.01</v>
+        <v>2002</v>
       </c>
       <c r="B90" t="s">
         <v>2</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2">
-        <v>2002.01</v>
+        <v>2002</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2">
-        <v>2002.01</v>
+        <v>2002</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2">
-        <v>2002.01</v>
+        <v>2002</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2">
-        <v>2003.01</v>
+        <v>2003</v>
       </c>
       <c r="B94" t="s">
         <v>2</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2">
-        <v>2003.01</v>
+        <v>2003</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2">
-        <v>2003.01</v>
+        <v>2003</v>
       </c>
       <c r="B96" t="s">
         <v>4</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2">
-        <v>2003.01</v>
+        <v>2003</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2">
-        <v>2004.01</v>
+        <v>2004</v>
       </c>
       <c r="B98" t="s">
         <v>2</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2">
-        <v>2004.01</v>
+        <v>2004</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2">
-        <v>2004.01</v>
+        <v>2004</v>
       </c>
       <c r="B100" t="s">
         <v>4</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2">
-        <v>2004.01</v>
+        <v>2004</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2">
-        <v>2005.01</v>
+        <v>2005</v>
       </c>
       <c r="B102" t="s">
         <v>2</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2">
-        <v>2005.01</v>
+        <v>2005</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2">
-        <v>2005.01</v>
+        <v>2005</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2">
-        <v>2005.01</v>
+        <v>2005</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2">
-        <v>2006.01</v>
+        <v>2006</v>
       </c>
       <c r="B106" t="s">
         <v>2</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2">
-        <v>2006.01</v>
+        <v>2006</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2">
-        <v>2006.01</v>
+        <v>2006</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2">
-        <v>2006.01</v>
+        <v>2006</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2">
-        <v>2007.01</v>
+        <v>2007</v>
       </c>
       <c r="B110" t="s">
         <v>2</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2">
-        <v>2007.01</v>
+        <v>2007</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2">
-        <v>2007.01</v>
+        <v>2007</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2">
-        <v>2007.01</v>
+        <v>2007</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2">
-        <v>2008.01</v>
+        <v>2008</v>
       </c>
       <c r="B114" t="s">
         <v>2</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2">
-        <v>2008.01</v>
+        <v>2008</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2">
-        <v>2008.01</v>
+        <v>2008</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2">
-        <v>2008.01</v>
+        <v>2008</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2">
-        <v>2009.01</v>
+        <v>2009</v>
       </c>
       <c r="B118" t="s">
         <v>2</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2">
-        <v>2009.01</v>
+        <v>2009</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2">
-        <v>2009.01</v>
+        <v>2009</v>
       </c>
       <c r="B120" t="s">
         <v>4</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2">
-        <v>2009.01</v>
+        <v>2009</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2">
-        <v>2010.01</v>
+        <v>2010</v>
       </c>
       <c r="B122" t="s">
         <v>2</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2">
-        <v>2010.01</v>
+        <v>2010</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2">
-        <v>2010.01</v>
+        <v>2010</v>
       </c>
       <c r="B124" t="s">
         <v>4</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2">
-        <v>2010.01</v>
+        <v>2010</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2">
-        <v>2011.01</v>
+        <v>2011</v>
       </c>
       <c r="B126" t="s">
         <v>2</v>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2">
-        <v>2011.01</v>
+        <v>2011</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2">
-        <v>2011.01</v>
+        <v>2011</v>
       </c>
       <c r="B128" t="s">
         <v>4</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2">
-        <v>2011.01</v>
+        <v>2011</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2">
-        <v>2012.01</v>
+        <v>2012</v>
       </c>
       <c r="B130" t="s">
         <v>2</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2">
-        <v>2012.01</v>
+        <v>2012</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2">
-        <v>2012.01</v>
+        <v>2012</v>
       </c>
       <c r="B132" t="s">
         <v>4</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2">
-        <v>2012.01</v>
+        <v>2012</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2">
-        <v>2013.01</v>
+        <v>2013</v>
       </c>
       <c r="B134" t="s">
         <v>2</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2">
-        <v>2013.01</v>
+        <v>2013</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2">
-        <v>2013.01</v>
+        <v>2013</v>
       </c>
       <c r="B136" t="s">
         <v>4</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2">
-        <v>2013.01</v>
+        <v>2013</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2">
-        <v>2014.01</v>
+        <v>2014</v>
       </c>
       <c r="B138" t="s">
         <v>2</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2">
-        <v>2014.01</v>
+        <v>2014</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2">
-        <v>2014.01</v>
+        <v>2014</v>
       </c>
       <c r="B140" t="s">
         <v>4</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2">
-        <v>2014.01</v>
+        <v>2014</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2">
-        <v>2015.01</v>
+        <v>2015</v>
       </c>
       <c r="B142" t="s">
         <v>2</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2">
-        <v>2015.01</v>
+        <v>2015</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2">
-        <v>2015.01</v>
+        <v>2015</v>
       </c>
       <c r="B144" t="s">
         <v>4</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2">
-        <v>2015.01</v>
+        <v>2015</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2">
-        <v>2016.01</v>
+        <v>2016</v>
       </c>
       <c r="B146" t="s">
         <v>2</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2">
-        <v>2016.01</v>
+        <v>2016</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2">
-        <v>2016.01</v>
+        <v>2016</v>
       </c>
       <c r="B148" t="s">
         <v>4</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2">
-        <v>2016.01</v>
+        <v>2016</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2">
-        <v>2017.01</v>
+        <v>2017</v>
       </c>
       <c r="B150" t="s">
         <v>2</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2">
-        <v>2017.01</v>
+        <v>2017</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2">
-        <v>2017.01</v>
+        <v>2017</v>
       </c>
       <c r="B152" t="s">
         <v>4</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2">
-        <v>2017.01</v>
+        <v>2017</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2">
-        <v>2018.01</v>
+        <v>2018</v>
       </c>
       <c r="B154" t="s">
         <v>2</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2">
-        <v>2018.01</v>
+        <v>2018</v>
       </c>
       <c r="B155" t="s">
         <v>3</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2">
-        <v>2018.01</v>
+        <v>2018</v>
       </c>
       <c r="B156" t="s">
         <v>4</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2">
-        <v>2018.01</v>
+        <v>2018</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2">
-        <v>2019.01</v>
+        <v>2019</v>
       </c>
       <c r="B158" t="s">
         <v>2</v>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2">
-        <v>2019.01</v>
+        <v>2019</v>
       </c>
       <c r="B159" t="s">
         <v>3</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2">
-        <v>2019.01</v>
+        <v>2019</v>
       </c>
       <c r="B160" t="s">
         <v>4</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2">
-        <v>2019.01</v>
+        <v>2019</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2">
-        <v>2020.01</v>
+        <v>2020</v>
       </c>
       <c r="B162" t="s">
         <v>2</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2">
-        <v>2020.01</v>
+        <v>2020</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2">
-        <v>2020.01</v>
+        <v>2020</v>
       </c>
       <c r="B164" t="s">
         <v>4</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2">
-        <v>2020.01</v>
+        <v>2020</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2">
-        <v>2021.01</v>
+        <v>2021</v>
       </c>
       <c r="B166" t="s">
         <v>2</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2">
-        <v>2021.01</v>
+        <v>2021</v>
       </c>
       <c r="B167" t="s">
         <v>3</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2">
-        <v>2021.01</v>
+        <v>2021</v>
       </c>
       <c r="B168" t="s">
         <v>4</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="2">
-        <v>2021.01</v>
+        <v>2021</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
